--- a/HRMS/Assets/Templates/VendorImportTemplate.xlsx
+++ b/HRMS/Assets/Templates/VendorImportTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjali Missewar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\HRMS\HRMS\Assets\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5B31FD-B9B1-4D49-A080-4FCDAF76A4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405E7B09-E8CB-43A2-BB3B-F658CDEFF996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F69A317D-D314-4E11-9A7C-801A378E5958}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>VendorName</t>
   </si>
@@ -56,30 +56,6 @@
     <t>VendorType</t>
   </si>
   <si>
-    <t>ApprovedBy</t>
-  </si>
-  <si>
-    <t>ApprovedDate</t>
-  </si>
-  <si>
-    <t>RejectedBy</t>
-  </si>
-  <si>
-    <t>RejectedDate</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>ApproveRejectReason</t>
-  </si>
-  <si>
-    <t>Mithun Sivaprakasam</t>
-  </si>
-  <si>
-    <t>Approved</t>
-  </si>
-  <si>
     <t>MAXBRIGHT IT SOLUTIONS</t>
   </si>
   <si>
@@ -93,6 +69,12 @@
   </si>
   <si>
     <t>36ABKFM3194J1ZT</t>
+  </si>
+  <si>
+    <t>CreatedBy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goutham </t>
   </si>
 </sst>
 </file>
@@ -128,9 +110,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0517D8-A39D-42C8-A97E-25D7A5723481}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,18 +457,13 @@
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="181.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.88671875" customWidth="1"/>
     <col min="5" max="5" width="15.109375" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,51 +483,30 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
       </c>
       <c r="C2">
         <v>9381672475</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" s="1">
-        <v>45560</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
